--- a/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,427 +462,1617 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.130774</v>
+        <v>0.05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130774</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8981199916510144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8981199916510144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.153969</v>
+        <v>0.06</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.7016666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02319499999999999</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8801408670509243</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.7902452440504738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.182164</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6589341</v>
+        <v>0.6914285714285714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.028195</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792352833195319</v>
+        <v>0.867298635193717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7901641992234179</v>
+        <v>0.7902452440504727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.210358</v>
+        <v>0.08</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6576009</v>
+        <v>0.68</v>
       </c>
       <c r="C5" t="n">
-        <v>0.028194</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7907496913982623</v>
+        <v>0.852963120562416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7803916463419016</v>
+        <v>0.7526145181433086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.244951</v>
+        <v>0.09</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6556010999999999</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03459300000000001</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7883449787026769</v>
+        <v>0.8292697005467933</v>
       </c>
       <c r="E6" t="n">
-        <v>0.77372206212366</v>
+        <v>0.6397223404218114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.278144</v>
+        <v>0.1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6526013999999999</v>
+        <v>0.645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.033193</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7847379096592991</v>
+        <v>0.8090606070040564</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7581191897712367</v>
+        <v>0.6271787651194246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.314137</v>
+        <v>0.11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6496016999999999</v>
+        <v>0.6318181818181818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.035993</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7811308406159214</v>
+        <v>0.7925258941054534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7532564035864647</v>
+        <v>0.6271787651194242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.342332</v>
+        <v>0.12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.646602</v>
+        <v>0.6208333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02819500000000003</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7775237715725437</v>
+        <v>0.7787469666899509</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7373353038272156</v>
+        <v>0.6271787651194227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.378324</v>
+        <v>0.13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.643269</v>
+        <v>0.6115384615384616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03599199999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7735159170799017</v>
+        <v>0.7670878742614488</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7353958669527864</v>
+        <v>0.6271787651194233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.408918</v>
+        <v>0.14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6399359999999999</v>
+        <v>0.6035714285714285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7695080625872597</v>
+        <v>0.7570943664655897</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7199471178571065</v>
+        <v>0.6271787651194218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.441112</v>
+        <v>0.15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.636603</v>
+        <v>0.5973333333333334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.032194</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7655002080946178</v>
+        <v>0.749269564729338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7145937086406158</v>
+        <v>0.6397223404218151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.471906</v>
+        <v>0.16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6336033</v>
+        <v>0.59875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03079399999999999</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.76189313905124</v>
+        <v>0.7510465712305097</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7102232864870238</v>
+        <v>0.7777016687480841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5001</v>
+        <v>0.17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6306036</v>
+        <v>0.6005882352941176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.028194</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7582860700078623</v>
+        <v>0.7533523755140369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6979116100524042</v>
+        <v>0.7902452440504727</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.530694</v>
+        <v>0.18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6276039</v>
+        <v>0.6011111111111112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7546790009644845</v>
+        <v>0.7540082487324625</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6957166152485523</v>
+        <v>0.765158093445699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.565487</v>
+        <v>0.19</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6239376</v>
+        <v>0.5957894736842105</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03479299999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7502703610225783</v>
+        <v>0.7473330127528288</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6830258358212444</v>
+        <v>0.6271787651194205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.606479</v>
+        <v>0.2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.619938</v>
+        <v>0.591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04099200000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7454609356314079</v>
+        <v>0.7413253003711585</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6791146354709676</v>
+        <v>0.6271787651194233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.64867</v>
+        <v>0.21</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6156050999999999</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04219099999999998</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7402507247909732</v>
+        <v>0.7358897510734569</v>
       </c>
       <c r="E18" t="n">
-        <v>0.665355996998411</v>
+        <v>0.6271787651194223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.689662</v>
+        <v>0.22</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6119387999999999</v>
+        <v>0.5863636363636364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04099200000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.735842084849067</v>
+        <v>0.7355096427309603</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6660784121539968</v>
+        <v>0.7275273675385323</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.737253</v>
+        <v>0.23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6072725999999999</v>
+        <v>0.5878260869565217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04759100000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7302310885593684</v>
+        <v>0.7373440786447483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6489196867576401</v>
+        <v>0.7777016687480813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.787243</v>
+        <v>0.24</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6026063999999999</v>
+        <v>0.5895833333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04998999999999998</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7246200922696695</v>
+        <v>0.7395482938699869</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6418690651128509</v>
+        <v>0.7902452440504762</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.835833</v>
+        <v>0.25</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5986068</v>
+        <v>0.5876</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04859000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7198106668784993</v>
+        <v>0.7370604847683465</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6418895622639468</v>
+        <v>0.6773530663289778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8808240000000001</v>
+        <v>0.26</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5946071999999999</v>
+        <v>0.5842307692307692</v>
       </c>
       <c r="C23" t="n">
-        <v>0.044991</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7150012414873287</v>
+        <v>0.7328342647818494</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6256527839518603</v>
+        <v>0.6271787651194233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.925615</v>
+        <v>0.27</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5909409</v>
+        <v>0.5811111111111111</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04479099999999991</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7105926015454227</v>
+        <v>0.7289210981276856</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6238958127220124</v>
+        <v>0.6271787651194233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.960208</v>
+        <v>0.28</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5876079</v>
+        <v>0.5789285714285715</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03459299999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7065847470527806</v>
+        <v>0.7261834130418469</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5993454143494331</v>
+        <v>0.6522659157242033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5849415</v>
+        <v>0.5806896551724138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03979200000000005</v>
+        <v>0.009999999999999953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7033784634586672</v>
+        <v>0.7283924416973167</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5993454143494331</v>
+        <v>0.7902452440504729</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7300360825990091</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7777016687480897</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.582258064516129</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7303597877681028</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7400709428409168</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7275273675385312</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6397223404218105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5775757575757575</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7244865007985583</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6271787651194233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5752941176470587</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7216245085727013</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6271787651194233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5757142857142856</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7221515495517933</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7400709428409181</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5772222222222223</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7240430410656457</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7902452440504797</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5783783783783784</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.725493274246252</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7777016687480813</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5797368421052632</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7271972734516263</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7902452440504741</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.581025641025641</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.728813888082366</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7902452440504741</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7300360825990091</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7777016687480924</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.583170731707317</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7315045987319715</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7902452440504674</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5842857142857143</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7329031855252692</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7902452440504741</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5851162790697675</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7339450107164975</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7777016687480869</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5861363636363636</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7352245614740878</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7902452440504686</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5891111111111111</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7389559583695964</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9031374217719704</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.592608695652174</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7433431798763255</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9407681476791321</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5959574468085107</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7475437111061726</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.940768147679143</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5989583333333334</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7513078957159761</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9282245723767394</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5993877551020408</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7518465441452027</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7777016687480813</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7526145181433082</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7902452440504741</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5998039215686275</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7523685656863986</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7400709428409251</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5978846153846153</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7499610695216491</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5960377358490566</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7476444222687769</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6271787651194344</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5944444444444444</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7456458651975368</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6397223404218105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5927272727272728</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7434919179233893</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6271787651194233</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5910714285714286</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7414148973376042</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6271787651194233</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5894736842105264</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.7394107546671099</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6271787651194303</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5879310344827586</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7374757203645635</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5864406779661017</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7356062804451543</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5850000000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7337991551897256</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6271787651194344</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5837704918032787</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7322569123246777</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6397223404217994</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5846774193548387</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7333945237283581</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8027888193528614</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.7366861685529736</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9407681476791376</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.7400709428409197</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9533117229815193</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5924615384615385</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.7431585921461231</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9407681476791432</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5910606060606061</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7414013220396579</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5897014925373134</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7396965077572664</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6271787651194233</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5883823529411765</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7380418350714157</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6271787651194288</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5871014492753623</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.7364351239126912</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6271787651194136</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5858571428571429</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.7348743187870731</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6271787651194288</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5847887323943662</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7335341500777033</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6397223404218216</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5836111111111112</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7320569919532828</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.582876712328767</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.7311357933104511</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.6648094910265739</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5822972972972973</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7304089997025934</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.677353066328989</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5816</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7295343395869134</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.664809491026585</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5810526315789474</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.7288477438861511</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.6773530663289778</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5805194805194805</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.7281789818399541</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6773530663290001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5808974358974359</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7286530730143866</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.765158093445683</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5815189873417721</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7294327207490205</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7902452440504686</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.582125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.7301928772902888</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7902452440504797</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5825925925925926</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7307794055798912</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.7777016687480869</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.583170731707317</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.7315045987319715</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7902452440504774</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5834939759036144</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.7319100625237031</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.765158093445683</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5825</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.7306632613641284</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6271787651194399</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5815294117647059</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7294457967024259</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5805813953488372</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7282566451723911</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6271787651194288</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5805747126436781</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7282482626708524</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7275273675385268</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5810227272727273</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.7288102331944574</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7777016687480869</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5815730337078652</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7295005142153115</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7902452440504686</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5811111111111111</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7289210981276856</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.677353066328989</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5802197802197802</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7278030505122101</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6271787651194066</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5793478260869565</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7267093082796797</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.578494623655914</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7256390873854835</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6271787651194288</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.577659574468085</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7245916371486104</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6271787651194136</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5769473684210527</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7236982761304338</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6397223404218327</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5761458333333334</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7226928645574024</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6271787651194177</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.575360824742268</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.7217081831198974</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6271787651194066</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5745918367346939</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7207435972219335</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.6271787651194399</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5738383838383838</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.7197984979077666</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6271787651194399</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,430 +459,350 @@
           <t>eff_adjusted_electrolyzer</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>weights</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.130774</v>
+        <v>0.292</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.8284900000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130774</v>
+        <v>0.292</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.7905203322205661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.7905203322205661</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.153969</v>
+        <v>0.314</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.8284900000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02319499999999999</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.7905203322205661</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.7905203322205661</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07006369426751599</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.182164</v>
+        <v>0.341</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6589341</v>
+        <v>0.8284900000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.028195</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792352833195319</v>
+        <v>0.7905203322205661</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7901641992234179</v>
+        <v>0.7905203322205659</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0791788856304986</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.210358</v>
+        <v>0.367</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6576009</v>
+        <v>0.8284900000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.028194</v>
+        <v>0.02599999999999997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7907496913982623</v>
+        <v>0.7905203322205661</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7803916463419016</v>
+        <v>0.7905203322205659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07084468664850127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.244951</v>
+        <v>0.398</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6556010999999999</v>
+        <v>0.8284900000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03459300000000001</v>
+        <v>0.03100000000000003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7883449787026769</v>
+        <v>0.7905203322205661</v>
       </c>
       <c r="E6" t="n">
-        <v>0.77372206212366</v>
+        <v>0.7905203322205659</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07788944723618096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.278144</v>
+        <v>0.443</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6526013999999999</v>
+        <v>0.8284900000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.033193</v>
+        <v>0.04499999999999998</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7847379096592991</v>
+        <v>0.7905203322205661</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7581191897712367</v>
+        <v>0.7905203322205659</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1015801354401805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.314137</v>
+        <v>0.489</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6496016999999999</v>
+        <v>0.81699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.035993</v>
+        <v>0.04599999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7811308406159214</v>
+        <v>0.779547376819129</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7532564035864647</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09406952965235171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.342332</v>
+        <v>0.542</v>
       </c>
       <c r="B9" t="n">
-        <v>0.646602</v>
+        <v>0.81699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02819500000000003</v>
+        <v>0.05300000000000005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7775237715725437</v>
+        <v>0.779547376819129</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7373353038272156</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.09778597785977867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.378324</v>
+        <v>0.587</v>
       </c>
       <c r="B10" t="n">
-        <v>0.643269</v>
+        <v>0.80548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03599199999999997</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7735159170799017</v>
+        <v>0.768564879717343</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7353958669527864</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.07666098807495729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.408918</v>
+        <v>0.64</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6399359999999999</v>
+        <v>0.7939700000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.05300000000000005</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7695080625872597</v>
+        <v>0.757582382615557</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7199471178571065</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08281250000000007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.441112</v>
+        <v>0.708</v>
       </c>
       <c r="B12" t="n">
-        <v>0.636603</v>
+        <v>0.78247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.032194</v>
+        <v>0.06799999999999995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7655002080946178</v>
+        <v>0.7466094272141199</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7145937086406158</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09604519774011293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.471906</v>
+        <v>0.765</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6336033</v>
+        <v>0.7709600000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03079399999999999</v>
+        <v>0.05700000000000005</v>
       </c>
       <c r="D13" t="n">
-        <v>0.76189313905124</v>
+        <v>0.735626930112334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7102232864870238</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0745098039215687</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5001</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6306036</v>
+        <v>0.75945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.028194</v>
+        <v>0.05299999999999994</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7582860700078623</v>
+        <v>0.7246444330105478</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6979116100524042</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06479217603911973</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.530694</v>
+        <v>0.867</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6276039</v>
+        <v>0.74795</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.04900000000000004</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7546790009644845</v>
+        <v>0.713671477609111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6957166152485523</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05651672433679359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.565487</v>
+        <v>0.924</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6239376</v>
+        <v>0.7364400000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03479299999999996</v>
+        <v>0.05700000000000005</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7502703610225783</v>
+        <v>0.702688980507325</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6830258358212444</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06168831168831174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.606479</v>
+        <v>0.962</v>
       </c>
       <c r="B17" t="n">
-        <v>0.619938</v>
+        <v>0.72493</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04099200000000003</v>
+        <v>0.03799999999999992</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7454609356314079</v>
+        <v>0.6917064834055389</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6791146354709676</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.03950103950103942</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.64867</v>
+        <v>0.991</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6156050999999999</v>
+        <v>0.715</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04219099999999998</v>
+        <v>0.02900000000000003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7402507247909732</v>
+        <v>0.6822315749589067</v>
       </c>
       <c r="E18" t="n">
-        <v>0.665355996998411</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.689662</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.6119387999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.04099200000000003</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.735842084849067</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6660784121539968</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.737253</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6072725999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.04759100000000005</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.7302310885593684</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.6489196867576401</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.787243</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6026063999999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.04998999999999998</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7246200922696695</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.6418690651128509</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.835833</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5986068</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.04859000000000002</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.7198106668784993</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6418895622639468</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.8808240000000001</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5946071999999999</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.044991</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.7150012414873287</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.6256527839518603</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.925615</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5909409</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.04479099999999991</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.7105926015454227</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6238958127220124</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>0.960208</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5876079</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.03459299999999998</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.7065847470527806</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5993454143494331</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5849415</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.03979200000000005</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.7033784634586672</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5993454143494331</v>
+        <v>0.6738730454531172</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.029263370332997</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.292</v>
+        <v>0.130774</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8284900000000001</v>
+        <v>0.6592673999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.292</v>
+        <v>0.130774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.7927536186445832</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.7927536186445832</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -487,322 +487,482 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.314</v>
+        <v>0.153969</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8284900000000001</v>
+        <v>0.6592673999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02200000000000002</v>
+        <v>0.02319499999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.7927536186445832</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.7927536186445832</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07006369426751599</v>
+        <v>0.1506472082042489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.341</v>
+        <v>0.182164</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8284900000000001</v>
+        <v>0.6589341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02700000000000002</v>
+        <v>0.028195</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.792352833195319</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7905203322205659</v>
+        <v>0.7901641992234182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0791788856304986</v>
+        <v>0.1547781120309172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.367</v>
+        <v>0.210358</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8284900000000001</v>
+        <v>0.6576009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02599999999999997</v>
+        <v>0.028194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.7907496913982623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7905203322205659</v>
+        <v>0.7901641992234182</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07084468664850127</v>
+        <v>0.1340286559104004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.398</v>
+        <v>0.244951</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8284900000000001</v>
+        <v>0.6556010999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03100000000000003</v>
+        <v>0.03459300000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.7883449787026769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7905203322205659</v>
+        <v>0.7772824056300296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07788944723618096</v>
+        <v>0.141224163199987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.443</v>
+        <v>0.278144</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8284900000000001</v>
+        <v>0.6526013999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04499999999999998</v>
+        <v>0.033193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7905203322205661</v>
+        <v>0.7847379096592991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7905203322205659</v>
+        <v>0.7772824056300296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015801354401805</v>
+        <v>0.1193374654855039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.489</v>
+        <v>0.314137</v>
       </c>
       <c r="B8" t="n">
-        <v>0.81699</v>
+        <v>0.6496016999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04599999999999999</v>
+        <v>0.035993</v>
       </c>
       <c r="D8" t="n">
-        <v>0.779547376819129</v>
+        <v>0.7811308406159214</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.7772824056300296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09406952965235171</v>
+        <v>0.1145773977595762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.542</v>
+        <v>0.342332</v>
       </c>
       <c r="B9" t="n">
-        <v>0.81699</v>
+        <v>0.646602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05300000000000005</v>
+        <v>0.02819500000000003</v>
       </c>
       <c r="D9" t="n">
-        <v>0.779547376819129</v>
+        <v>0.7775237715725437</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.7772824056300296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09778597785977867</v>
+        <v>0.08236156713365979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.587</v>
+        <v>0.378324</v>
       </c>
       <c r="B10" t="n">
-        <v>0.80548</v>
+        <v>0.643269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04499999999999993</v>
+        <v>0.03599199999999997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.768564879717343</v>
+        <v>0.7735159170799017</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07666098807495729</v>
+        <v>0.09513538659984555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.64</v>
+        <v>0.408918</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7939700000000001</v>
+        <v>0.6399359999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05300000000000005</v>
+        <v>0.03059400000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.757582382615557</v>
+        <v>0.7695080625872597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08281250000000007</v>
+        <v>0.07481695596672196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.708</v>
+        <v>0.441112</v>
       </c>
       <c r="B12" t="n">
-        <v>0.78247</v>
+        <v>0.636603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06799999999999995</v>
+        <v>0.032194</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7466094272141199</v>
+        <v>0.7655002080946178</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09604519774011293</v>
+        <v>0.07298373202270625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.765</v>
+        <v>0.471906</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7709600000000001</v>
+        <v>0.6336033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05700000000000005</v>
+        <v>0.03079399999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.735626930112334</v>
+        <v>0.76189313905124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0745098039215687</v>
+        <v>0.06525452102749274</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.5001</v>
       </c>
       <c r="B14" t="n">
-        <v>0.75945</v>
+        <v>0.6306036</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05299999999999994</v>
+        <v>0.028194</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7246444330105478</v>
+        <v>0.7582860700078623</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06479217603911973</v>
+        <v>0.05637672465506898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.867</v>
+        <v>0.530694</v>
       </c>
       <c r="B15" t="n">
-        <v>0.74795</v>
+        <v>0.6276039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04900000000000004</v>
+        <v>0.03059400000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.713671477609111</v>
+        <v>0.7546790009644845</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05651672433679359</v>
+        <v>0.05764904069011523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.924</v>
+        <v>0.565487</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7364400000000001</v>
+        <v>0.6239376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05700000000000005</v>
+        <v>0.03479299999999996</v>
       </c>
       <c r="D16" t="n">
-        <v>0.702688980507325</v>
+        <v>0.7502703610225783</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06168831168831174</v>
+        <v>0.0615274975375207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.962</v>
+        <v>0.606479</v>
       </c>
       <c r="B17" t="n">
-        <v>0.72493</v>
+        <v>0.619938</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03799999999999992</v>
+        <v>0.04099200000000003</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6917064834055389</v>
+        <v>0.7454609356314079</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03950103950103942</v>
+        <v>0.06759013914743961</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.991</v>
+        <v>0.64867</v>
       </c>
       <c r="B18" t="n">
-        <v>0.715</v>
+        <v>0.6156050999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02900000000000003</v>
+        <v>0.04219099999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6822315749589067</v>
+        <v>0.7402507247909732</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6738730454531172</v>
+        <v>0.737691579495373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.029263370332997</v>
+        <v>0.06504231735705364</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.689662</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6119387999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04099200000000003</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.735842084849067</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7065751134346605</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.05943781156566554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.737253</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6072725999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.04759100000000005</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7302310885593684</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7065751134346605</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.06455178887030646</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.787243</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6026063999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.04998999999999998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7246200922696695</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7065751134346605</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06350008828277924</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.835833</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5986068</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.04859000000000002</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7198106668784993</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7065751134346605</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.05813362238629011</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.8808240000000001</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5946071999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.044991</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7150012414873287</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7065751134346605</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0510783084929566</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.925615</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5909409</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.04479099999999991</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7105926015454227</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7065751134346605</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.04839052953981938</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.960208</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5876079</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03459299999999998</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7065847470527806</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7065751134346605</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0360265692433306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5849415</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.03979200000000005</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7033784634586672</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6262411273069634</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.03979200000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.130774</v>
+        <v>0.05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130774</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8981199916510144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8981199916510144</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -487,482 +487,1882 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.153969</v>
+        <v>0.06</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.7016666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02319499999999999</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8801408670509243</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1506472082042489</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.182164</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6589341</v>
+        <v>0.6914285714285714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.028195</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792352833195319</v>
+        <v>0.867298635193717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7901641992234182</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1547781120309172</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.210358</v>
+        <v>0.08</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6576009</v>
+        <v>0.68</v>
       </c>
       <c r="C5" t="n">
-        <v>0.028194</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7907496913982623</v>
+        <v>0.852963120562416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7901641992234182</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1340286559104004</v>
+        <v>0.1249999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.244951</v>
+        <v>0.09</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6556010999999999</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03459300000000001</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7883449787026769</v>
+        <v>0.8292697005467933</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.141224163199987</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.278144</v>
+        <v>0.1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6526013999999999</v>
+        <v>0.645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.033193</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7847379096592991</v>
+        <v>0.8090606070040564</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1193374654855039</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.314137</v>
+        <v>0.11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6496016999999999</v>
+        <v>0.6318181818181818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.035993</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7811308406159214</v>
+        <v>0.7925258941054534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1145773977595762</v>
+        <v>0.09090909090909087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.342332</v>
+        <v>0.12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.646602</v>
+        <v>0.6208333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02819500000000003</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7775237715725437</v>
+        <v>0.7787469666899509</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08236156713365979</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.378324</v>
+        <v>0.13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.643269</v>
+        <v>0.6115384615384616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03599199999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7735159170799017</v>
+        <v>0.7670878742614488</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09513538659984555</v>
+        <v>0.07692307692307698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.408918</v>
+        <v>0.14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6399359999999999</v>
+        <v>0.6035714285714285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7695080625872597</v>
+        <v>0.7570943664655897</v>
       </c>
       <c r="E11" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07481695596672196</v>
+        <v>0.07142857142857148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.441112</v>
+        <v>0.15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.636603</v>
+        <v>0.5973333333333334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.032194</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7655002080946178</v>
+        <v>0.749269564729338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07298373202270625</v>
+        <v>0.06666666666666654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.471906</v>
+        <v>0.16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6336033</v>
+        <v>0.59875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03079399999999999</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.76189313905124</v>
+        <v>0.7510465712305097</v>
       </c>
       <c r="E13" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06525452102749274</v>
+        <v>0.06250000000000006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5001</v>
+        <v>0.17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6306036</v>
+        <v>0.6005882352941176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.028194</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7582860700078623</v>
+        <v>0.7533523755140369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05637672465506898</v>
+        <v>0.05882352941176475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.530694</v>
+        <v>0.18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6276039</v>
+        <v>0.6011111111111112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7546790009644845</v>
+        <v>0.7540082487324625</v>
       </c>
       <c r="E15" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05764904069011523</v>
+        <v>0.05555555555555546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.565487</v>
+        <v>0.19</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6239376</v>
+        <v>0.5957894736842105</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03479299999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7502703610225783</v>
+        <v>0.7473330127528288</v>
       </c>
       <c r="E16" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0615274975375207</v>
+        <v>0.05263157894736847</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.606479</v>
+        <v>0.2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.619938</v>
+        <v>0.591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04099200000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7454609356314079</v>
+        <v>0.7413253003711585</v>
       </c>
       <c r="E17" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06759013914743961</v>
+        <v>0.05000000000000004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.64867</v>
+        <v>0.21</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6156050999999999</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04219099999999998</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7402507247909732</v>
+        <v>0.7358897510734569</v>
       </c>
       <c r="E18" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06504231735705364</v>
+        <v>0.04761904761904753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.689662</v>
+        <v>0.22</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6119387999999999</v>
+        <v>0.5863636363636364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04099200000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.735842084849067</v>
+        <v>0.7355096427309603</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05943781156566554</v>
+        <v>0.0454545454545455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.737253</v>
+        <v>0.23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6072725999999999</v>
+        <v>0.5878260869565217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04759100000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7302310885593684</v>
+        <v>0.7373440786447483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06455178887030646</v>
+        <v>0.04347826086956525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.787243</v>
+        <v>0.24</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6026063999999999</v>
+        <v>0.5895833333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04998999999999998</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7246200922696695</v>
+        <v>0.7395482938699869</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06350008828277924</v>
+        <v>0.04166666666666659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.835833</v>
+        <v>0.25</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5986068</v>
+        <v>0.5876</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04859000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7198106668784993</v>
+        <v>0.7370604847683465</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05813362238629011</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8808240000000001</v>
+        <v>0.26</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5946071999999999</v>
+        <v>0.5842307692307692</v>
       </c>
       <c r="C23" t="n">
-        <v>0.044991</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7150012414873287</v>
+        <v>0.7328342647818494</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0510783084929566</v>
+        <v>0.03846153846153849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.925615</v>
+        <v>0.27</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5909409</v>
+        <v>0.5811111111111111</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04479099999999991</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7105926015454227</v>
+        <v>0.7289210981276856</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04839052953981938</v>
+        <v>0.03703703703703707</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.960208</v>
+        <v>0.28</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5876079</v>
+        <v>0.5789285714285715</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03459299999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7065847470527806</v>
+        <v>0.7261834130418469</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0360265692433306</v>
+        <v>0.03571428571428574</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5849415</v>
+        <v>0.5806896551724138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03979200000000005</v>
+        <v>0.009999999999999953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7033784634586672</v>
+        <v>0.7283924416973167</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6262411273069634</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03979200000000005</v>
+        <v>0.0344827586206895</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7300360825990091</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.03333333333333337</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.582258064516129</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7303597877681028</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03225806451612906</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7275273675385312</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.03125000000000003</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5775757575757575</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7244865007985583</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03030303030303033</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5752941176470587</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7216245085727013</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02941176470588238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5757142857142856</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7221515495517933</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02857142857142844</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5772222222222223</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7240430410656457</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5783783783783784</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.725493274246252</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02702702702702705</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5797368421052632</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7271972734516263</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02631578947368423</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.581025641025641</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.728813888082366</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02564102564102566</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7300360825990091</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02500000000000002</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.583170731707317</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7315045987319715</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02439024390243891</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5842857142857143</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7329031855252692</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02380952380952383</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5851162790697675</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7339450107164975</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02325581395348839</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5861363636363636</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7352245614740878</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02272727272727275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5891111111111111</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7389559583695964</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02222222222222224</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.592608695652174</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7433431798763255</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02173913043478263</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5959574468085107</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7475437111061726</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02127659574468075</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5989583333333334</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7513078957159761</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02083333333333335</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5993877551020408</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7518465441452027</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02040816326530614</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7526145181433082</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5998039215686275</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7523685656863986</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01960784313725492</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5978846153846153</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7499610695216491</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01923076923076925</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5960377358490566</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7476444222687769</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0188679245283019</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5944444444444444</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7456458651975368</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01851851851851853</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5927272727272728</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7434919179233893</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01818181818181819</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5910714285714286</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7414148973376042</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01785714285714287</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5894736842105264</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.7394107546671099</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01754385964912263</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5879310344827586</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7374757203645635</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01724137931034484</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5864406779661017</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7356062804451543</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0169491525423729</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5850000000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7337991551897256</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01666666666666668</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5837704918032787</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7322569123246777</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01639344262295083</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5846774193548387</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7333945237283581</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01612903225806453</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.7366861685529736</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01587301587301589</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.7400709428409197</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01562500000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5924615384615385</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.7431585921461231</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0153846153846154</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5910606060606061</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7414013220396579</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01515151515151516</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5897014925373134</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7396965077572664</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01492537313432837</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5883823529411765</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7380418350714157</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01470588235294119</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5871014492753623</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.7364351239126912</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01449275362318826</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5858571428571429</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.7348743187870731</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0142857142857143</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5847887323943662</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7335341500777033</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01408450704225353</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5836111111111112</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7320569919532828</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0138888888888889</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.582876712328767</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.7311357933104511</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01369863013698631</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5822972972972973</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7304089997025934</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01351351351351353</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5816</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7295343395869134</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01333333333333334</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5810526315789474</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.7288477438861511</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01315789473684212</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5805194805194805</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.7281789818399541</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.012987012987013</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5808974358974359</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7286530730143866</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.01282051282051283</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5815189873417721</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7294327207490205</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01265822784810128</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.582125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.7301928772902888</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01250000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5825925925925926</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7307794055798912</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01234567901234569</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.583170731707317</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.7315045987319715</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01219512195121939</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5834939759036144</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.7319100625237031</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01204819277108435</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5825</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.7306632613641284</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01190476190476192</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5815294117647059</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7294457967024259</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01176470588235295</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5805813953488372</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7282566451723911</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0116279069767442</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5805747126436781</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7282482626708524</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01149425287356323</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5810227272727273</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.7288102331944574</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.01136363636363637</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5815730337078652</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7295005142153115</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01123595505617979</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5811111111111111</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7289210981276856</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01111111111111112</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5802197802197802</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7278030505122101</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.010989010989011</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5793478260869565</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7267093082796797</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.01086956521739131</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.578494623655914</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7256390873854835</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01075268817204302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.577659574468085</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7245916371486104</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.01063829787234032</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5769473684210527</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7236982761304338</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01052631578947369</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5761458333333334</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7226928645574024</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01041666666666668</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.575360824742268</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.7217081831198974</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01030927835051547</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5745918367346939</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7207435972219335</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.01020408163265307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5738383838383838</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.7197984979077666</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01010101010101011</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/other.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="efficiency" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.130774</v>
+        <v>0.05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130774</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8981199916510144</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8981199916510144</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -487,482 +487,1882 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.153969</v>
+        <v>0.06</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6592673999999999</v>
+        <v>0.7016666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02319499999999999</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.8801408670509243</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7927536186445832</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1506472082042489</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.182164</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6589341</v>
+        <v>0.6914285714285714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.028195</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.792352833195319</v>
+        <v>0.867298635193717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7901641992234182</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1547781120309172</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.210358</v>
+        <v>0.08</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6576009</v>
+        <v>0.68</v>
       </c>
       <c r="C5" t="n">
-        <v>0.028194</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7907496913982623</v>
+        <v>0.852963120562416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7901641992234182</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1340286559104004</v>
+        <v>0.1249999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.244951</v>
+        <v>0.09</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6556010999999999</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03459300000000001</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7883449787026769</v>
+        <v>0.8292697005467933</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.141224163199987</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.278144</v>
+        <v>0.1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6526013999999999</v>
+        <v>0.645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.033193</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7847379096592991</v>
+        <v>0.8090606070040564</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1193374654855039</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.314137</v>
+        <v>0.11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6496016999999999</v>
+        <v>0.6318181818181818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.035993</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7811308406159214</v>
+        <v>0.7925258941054534</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.790245244050474</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1145773977595762</v>
+        <v>0.09090909090909087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.342332</v>
+        <v>0.12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.646602</v>
+        <v>0.6208333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02819500000000003</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7775237715725437</v>
+        <v>0.7787469666899509</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7772824056300296</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08236156713365979</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.378324</v>
+        <v>0.13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.643269</v>
+        <v>0.6115384615384616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03599199999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7735159170799017</v>
+        <v>0.7670878742614488</v>
       </c>
       <c r="E10" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09513538659984555</v>
+        <v>0.07692307692307698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.408918</v>
+        <v>0.14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6399359999999999</v>
+        <v>0.6035714285714285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7695080625872597</v>
+        <v>0.7570943664655897</v>
       </c>
       <c r="E11" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07481695596672196</v>
+        <v>0.07142857142857148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.441112</v>
+        <v>0.15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.636603</v>
+        <v>0.5973333333333334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.032194</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7655002080946178</v>
+        <v>0.749269564729338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07298373202270625</v>
+        <v>0.06666666666666654</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.471906</v>
+        <v>0.16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6336033</v>
+        <v>0.59875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03079399999999999</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.76189313905124</v>
+        <v>0.7510465712305097</v>
       </c>
       <c r="E13" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06525452102749274</v>
+        <v>0.06250000000000006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5001</v>
+        <v>0.17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6306036</v>
+        <v>0.6005882352941176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.028194</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7582860700078623</v>
+        <v>0.7533523755140369</v>
       </c>
       <c r="E14" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05637672465506898</v>
+        <v>0.05882352941176475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.530694</v>
+        <v>0.18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6276039</v>
+        <v>0.6011111111111112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03059400000000001</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7546790009644845</v>
+        <v>0.7540082487324625</v>
       </c>
       <c r="E15" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05764904069011523</v>
+        <v>0.05555555555555546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.565487</v>
+        <v>0.19</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6239376</v>
+        <v>0.5957894736842105</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03479299999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7502703610225783</v>
+        <v>0.7473330127528288</v>
       </c>
       <c r="E16" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0615274975375207</v>
+        <v>0.05263157894736847</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.606479</v>
+        <v>0.2</v>
       </c>
       <c r="B17" t="n">
-        <v>0.619938</v>
+        <v>0.591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04099200000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7454609356314079</v>
+        <v>0.7413253003711585</v>
       </c>
       <c r="E17" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06759013914743961</v>
+        <v>0.05000000000000004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.64867</v>
+        <v>0.21</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6156050999999999</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04219099999999998</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7402507247909732</v>
+        <v>0.7358897510734569</v>
       </c>
       <c r="E18" t="n">
-        <v>0.737691579495373</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06504231735705364</v>
+        <v>0.04761904761904753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.689662</v>
+        <v>0.22</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6119387999999999</v>
+        <v>0.5863636363636364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04099200000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.735842084849067</v>
+        <v>0.7355096427309603</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05943781156566554</v>
+        <v>0.0454545454545455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.737253</v>
+        <v>0.23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6072725999999999</v>
+        <v>0.5878260869565217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04759100000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7302310885593684</v>
+        <v>0.7373440786447483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06455178887030646</v>
+        <v>0.04347826086956525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.787243</v>
+        <v>0.24</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6026063999999999</v>
+        <v>0.5895833333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04998999999999998</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7246200922696695</v>
+        <v>0.7395482938699869</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06350008828277924</v>
+        <v>0.04166666666666659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.835833</v>
+        <v>0.25</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5986068</v>
+        <v>0.5876</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04859000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7198106668784993</v>
+        <v>0.7370604847683465</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05813362238629011</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8808240000000001</v>
+        <v>0.26</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5946071999999999</v>
+        <v>0.5842307692307692</v>
       </c>
       <c r="C23" t="n">
-        <v>0.044991</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7150012414873287</v>
+        <v>0.7328342647818494</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0510783084929566</v>
+        <v>0.03846153846153849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.925615</v>
+        <v>0.27</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5909409</v>
+        <v>0.5811111111111111</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04479099999999991</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7105926015454227</v>
+        <v>0.7289210981276856</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04839052953981938</v>
+        <v>0.03703703703703707</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.960208</v>
+        <v>0.28</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5876079</v>
+        <v>0.5789285714285715</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03459299999999998</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7065847470527806</v>
+        <v>0.7261834130418469</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7065751134346605</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0360265692433306</v>
+        <v>0.03571428571428574</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5849415</v>
+        <v>0.5806896551724138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03979200000000005</v>
+        <v>0.009999999999999953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7033784634586672</v>
+        <v>0.7283924416973167</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6262411273069634</v>
+        <v>0.6522659157241966</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03979200000000005</v>
+        <v>0.0344827586206895</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7300360825990091</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.03333333333333337</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.582258064516129</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7303597877681028</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03225806451612906</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7275273675385312</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.03125000000000003</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5775757575757575</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7244865007985583</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03030303030303033</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5752941176470587</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7216245085727013</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02941176470588238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5757142857142856</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7221515495517933</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02857142857142844</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5772222222222223</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7240430410656457</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5783783783783784</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.725493274246252</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02702702702702705</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5797368421052632</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7271972734516263</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02631578947368423</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.581025641025641</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.728813888082366</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02564102564102566</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5820000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7300360825990091</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02500000000000002</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.583170731707317</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7315045987319715</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02439024390243891</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5842857142857143</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7329031855252692</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.02380952380952383</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5851162790697675</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7339450107164975</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02325581395348839</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5861363636363636</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7352245614740878</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02272727272727275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5891111111111111</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7389559583695964</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.02222222222222224</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.592608695652174</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7433431798763255</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02173913043478263</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5959574468085107</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.009999999999999953</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7475437111061726</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02127659574468075</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5989583333333334</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7513078957159761</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02083333333333335</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5993877551020408</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7518465441452027</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.02040816326530614</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7526145181433082</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5998039215686275</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7523685656863986</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01960784313725492</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5978846153846153</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7499610695216491</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01923076923076925</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5960377358490566</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7476444222687769</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0188679245283019</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5944444444444444</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7456458651975368</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01851851851851853</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5927272727272728</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.7434919179233893</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01818181818181819</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5910714285714286</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.7414148973376042</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.01785714285714287</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5894736842105264</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.7394107546671099</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01754385964912263</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5879310344827586</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7374757203645635</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.01724137931034484</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5864406779661017</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7356062804451543</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0169491525423729</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5850000000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7337991551897256</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01666666666666668</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5837704918032787</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7322569123246777</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.01639344262295083</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5846774193548387</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7333945237283581</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01612903225806453</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.7366861685529736</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01587301587301589</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.7400709428409197</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.01562500000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5924615384615385</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.7431585921461231</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0153846153846154</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5910606060606061</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7414013220396579</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01515151515151516</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5897014925373134</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7396965077572664</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01492537313432837</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5883823529411765</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7380418350714157</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.01470588235294119</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5871014492753623</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.7364351239126912</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01449275362318826</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5858571428571429</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.7348743187870731</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0142857142857143</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5847887323943662</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7335341500777033</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01408450704225353</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5836111111111112</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7320569919532828</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0138888888888889</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.582876712328767</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.7311357933104511</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01369863013698631</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5822972972972973</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7304089997025934</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.01351351351351353</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5816</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7295343395869134</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01333333333333334</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5810526315789474</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.7288477438861511</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01315789473684212</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5805194805194805</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.7281789818399541</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.012987012987013</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5808974358974359</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7286530730143866</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.01282051282051283</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5815189873417721</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7294327207490205</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01265822784810128</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.582125</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.7301928772902888</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.01250000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5825925925925926</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7307794055798912</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01234567901234569</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.583170731707317</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.7315045987319715</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01219512195121939</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5834939759036144</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.7319100625237031</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01204819277108435</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5825</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.7306632613641284</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01190476190476192</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5815294117647059</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7294457967024259</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01176470588235295</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5805813953488372</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7282566451723911</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0116279069767442</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5805747126436781</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7282482626708524</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01149425287356323</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5810227272727273</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.7288102331944574</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.01136363636363637</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5815730337078652</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7295005142153115</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.01123595505617979</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5811111111111111</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7289210981276856</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01111111111111112</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5802197802197802</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7278030505122101</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.010989010989011</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5793478260869565</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7267093082796797</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.01086956521739131</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.578494623655914</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7256390873854835</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01075268817204302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.577659574468085</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.009999999999999898</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7245916371486104</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.01063829787234032</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5769473684210527</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7236982761304338</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01052631578947369</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5761458333333334</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7226928645574024</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.01041666666666668</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.575360824742268</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.7217081831198974</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01030927835051547</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5745918367346939</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7207435972219335</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.01020408163265307</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5738383838383838</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.7197984979077666</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6522659157241966</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01010101010101011</v>
       </c>
     </row>
   </sheetData>
